--- a/Docs/Proyecto_Terapia_Pulsos.xlsx
+++ b/Docs/Proyecto_Terapia_Pulsos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SW" sheetId="1" r:id="rId1"/>
     <sheet name="FREQ_CALC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -352,7 +352,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,7 +387,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -564,7 +564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -574,11 +574,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
@@ -591,16 +591,16 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1055,11 +1055,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1089,15 +1089,15 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="D2">
         <f>(A2/B2/C2)</f>
-        <v>210</v>
+        <v>161.53846153846155</v>
       </c>
       <c r="E2">
         <f>(D2/2)</f>
-        <v>105</v>
+        <v>80.769230769230774</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Proyecto_Terapia_Pulsos.xlsx
+++ b/Docs/Proyecto_Terapia_Pulsos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
   <si>
     <t>Feature</t>
   </si>
@@ -248,6 +248,21 @@
   </si>
   <si>
     <t>GPIO (blue)</t>
+  </si>
+  <si>
+    <t>Frecuencia Inicial</t>
+  </si>
+  <si>
+    <t>Frecuencia Final</t>
+  </si>
+  <si>
+    <t>Freq</t>
+  </si>
+  <si>
+    <t>Per</t>
+  </si>
+  <si>
+    <t>Constante K</t>
   </si>
 </sst>
 </file>
@@ -564,7 +579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1053,18 +1068,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1081,23 +1096,120 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>21000000</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="C2">
-        <v>65000</v>
+        <v>32000</v>
       </c>
       <c r="D2">
         <f>(A2/B2/C2)</f>
-        <v>161.53846153846155</v>
+        <v>10.25390625</v>
       </c>
       <c r="E2">
         <f>(D2/2)</f>
-        <v>80.769230769230774</v>
+        <v>5.126953125</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>21000000</v>
+      </c>
+      <c r="B3">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>1640</v>
+      </c>
+      <c r="D3">
+        <f>(A3/B3/C3)</f>
+        <v>200.07621951219511</v>
+      </c>
+      <c r="E3">
+        <f>(D3/2)</f>
+        <v>100.03810975609755</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <f>(A9*2)</f>
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>21000000</v>
+      </c>
+      <c r="D9">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <f>(C9/D9/B9)</f>
+        <v>32812.5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <f>(A10*2)</f>
+        <v>200</v>
+      </c>
+      <c r="C10">
+        <v>21000000</v>
+      </c>
+      <c r="D10">
+        <v>64</v>
+      </c>
+      <c r="E10">
+        <f>(C10/D10/B10)</f>
+        <v>1640.625</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>(21000000/64)</f>
+        <v>328125</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Proyecto_Terapia_Pulsos.xlsx
+++ b/Docs/Proyecto_Terapia_Pulsos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="82">
   <si>
     <t>Feature</t>
   </si>
@@ -76,9 +76,6 @@
     <t>PTB2</t>
   </si>
   <si>
-    <t>ADC0_SE12</t>
-  </si>
-  <si>
     <t>PWM CH</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>Input</t>
   </si>
   <si>
-    <t>Sensor pression</t>
-  </si>
-  <si>
     <t>Push Button (atrás)</t>
   </si>
   <si>
@@ -142,12 +136,6 @@
     <t>PTB10</t>
   </si>
   <si>
-    <t>PTB11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alerta visual </t>
-  </si>
-  <si>
     <t>LCD_D0</t>
   </si>
   <si>
@@ -235,9 +223,6 @@
     <t>Led Heart bit</t>
   </si>
   <si>
-    <t>Led pression out of range</t>
-  </si>
-  <si>
     <t>GPIO (red)</t>
   </si>
   <si>
@@ -262,7 +247,25 @@
     <t>Per</t>
   </si>
   <si>
-    <t>Constante K</t>
+    <t>i2c</t>
+  </si>
+  <si>
+    <t>Sensor presion</t>
+  </si>
+  <si>
+    <t>PTB3</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>Input/Output</t>
+  </si>
+  <si>
+    <t>Led pressure out of range</t>
   </si>
 </sst>
 </file>
@@ -304,9 +307,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,7 +583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -587,478 +591,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="E26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
+      <c r="D27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1068,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,19 +1085,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1115,7 +1119,7 @@
         <v>5.126953125</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1137,24 +1141,24 @@
         <v>100.03810975609755</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1176,7 +1180,7 @@
         <v>32812.5</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1198,18 +1202,7 @@
         <v>1640.625</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <f>(21000000/64)</f>
-        <v>328125</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
